--- a/CDT_System/Reports/export_moduleframe2.xlsx
+++ b/CDT_System/Reports/export_moduleframe2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>suspect</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>element</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>incominglinks</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>action</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>parent</t>
         </is>
@@ -493,53 +498,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CDS-370: Introduction</t>
+          <t>CDS-462: Trainer Notification</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>heading</t>
+          <t>requirement</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-370: Introduction&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-370"&gt;CDS-370&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-462: Trainer Notification&lt;/p&gt;&lt;p&gt;Updated: 2022/10/21, 14:46:38&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-462"&gt;CDS-462&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022/07/18, 14:06:15</t>
+          <t>2022/10/21, 14:46:38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CDS-370</t>
+          <t>CDS-462</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Folder object at 0x13B8BDF0&gt;</t>
+          <t>Suspect:</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;__main__.Requirement object at 0x130D0B70&gt;</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>[&lt;__main__.FunctionalChain object at 0x130DA8B0&gt;, &lt;__main__.BehaviorPC object at 0x130DADF0&gt;]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
@@ -548,67 +558,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>5.1-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CDS-390: Purpose</t>
+          <t>CDS-479: New Requirement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>heading</t>
+          <t>requirement</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-390: Purpose&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-390"&gt;CDS-390&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-479: New Requirement&lt;/p&gt;&lt;p&gt;Updated: 2022/10/21, 14:49:46&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-479"&gt;CDS-479&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022/07/18, 14:06:15</t>
+          <t>2022/10/21, 14:49:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CDS-390</t>
+          <t>CDS-479</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Folder object at 0x13B8BE30&gt;</t>
+          <t>Suspect:</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;__main__.Requirement object at 0x130D0FB0&gt;</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>[&lt;__main__.NodePC object at 0x130E01B0&gt;]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>CDS-370</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CDS-392</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CDS-310: Scope</t>
+          <t>CDS-370: Introduction</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -618,7 +633,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-310: Scope&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-310"&gt;CDS-310&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-370: Introduction&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-370"&gt;CDS-370&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,42 +643,43 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CDS-310</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13B8BB90&gt;</t>
-        </is>
-      </c>
+          <t>CDS-370</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130A1D50&gt;</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>CDS-370</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CDS-311: References</t>
+          <t>CDS-321: Other Requirements</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -673,7 +689,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-311: References&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-311"&gt;CDS-311&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-321: Other Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-321"&gt;CDS-321&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -683,42 +699,43 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CDS-311</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x136624B0&gt;</t>
-        </is>
-      </c>
+          <t>CDS-321</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D0F30&gt;</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>CDS-370</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CDS-313: Overall Description</t>
+          <t>CDS-320: Software Quality Attributes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -728,7 +745,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-313: Overall Description&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-313"&gt;CDS-313&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-320: Software Quality Attributes&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-320"&gt;CDS-320&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -738,28 +755,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CDS-313</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13662D50&gt;</t>
-        </is>
-      </c>
+          <t>CDS-320</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130DA270&gt;</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
@@ -768,53 +786,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDS-314: Product Backlog</t>
+          <t>CDS-474: Athlete onboarding</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>heading</t>
+          <t>requirement</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-314: Product Backlog&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-314"&gt;CDS-314&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-474: Athlete onboarding&lt;/p&gt;&lt;p&gt;Updated: 2022/09/30, 13:24:51&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-474"&gt;CDS-474&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2022/07/18, 14:06:15</t>
+          <t>2022/09/30, 13:24:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CDS-314</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13662150&gt;</t>
-        </is>
-      </c>
+          <t>CDS-474</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
+          <t>&lt;__main__.Requirement object at 0x130DA350&gt;</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
@@ -823,12 +842,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDS-394: Functional Requirement</t>
+          <t>CDS-319: Security Requirements</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -838,38 +857,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-394: Functional Requirement&lt;/p&gt;&lt;p&gt;Updated: 2022/09/08, 13:24:12&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-394"&gt;CDS-394&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-319: Security Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/09/29, 13:22:42&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-319"&gt;CDS-319&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2022/09/08, 13:24:12</t>
+          <t>2022/09/29, 13:22:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CDS-394</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13BAB2F0&gt;</t>
-        </is>
-      </c>
+          <t>CDS-319</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130DA190&gt;</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
@@ -878,53 +898,54 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CDS-463: Sensor Install</t>
+          <t>CDS-318: Safety Requirements</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>requirement</t>
+          <t>heading</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-463: Sensor Install&lt;/p&gt;&lt;p&gt;Updated: 2022/09/29, 16:28:21&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-463"&gt;CDS-463&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-318: Safety Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-318"&gt;CDS-318&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2022/09/29, 16:28:21</t>
+          <t>2022/07/18, 14:06:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CDS-463</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Requirement object at 0x13BAB390&gt;</t>
-        </is>
-      </c>
+          <t>CDS-318</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D0DF0&gt;</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
@@ -933,12 +954,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CDS-462: Trainer Notification</t>
+          <t>CDS-464: Notification Time</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -948,38 +969,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-462: Trainer Notification&lt;/p&gt;&lt;p&gt;Updated: 2022/09/30, 15:56:38&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-462"&gt;CDS-462&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-464: Notification Time&lt;/p&gt;&lt;p&gt;Updated: 2022/10/12, 01:34:10&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-464"&gt;CDS-464&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2022/09/30, 15:56:38</t>
+          <t>2022/10/12, 01:34:10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CDS-462</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Requirement object at 0x13BAB790&gt;</t>
-        </is>
-      </c>
+          <t>CDS-464</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;__main__.Requirement object at 0x130DA0B0&gt;</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
+          <t>[&lt;__main__.FunctionalChain object at 0x130E5330&gt;]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
@@ -988,12 +1010,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CDS-395: Detection</t>
+          <t>CDS-392: Operational Range</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1003,38 +1025,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-395: Detection&lt;/p&gt;&lt;p&gt;Updated: 2022/09/30, 15:57:25&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-395"&gt;CDS-395&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-392: Operational Range&lt;/p&gt;&lt;p&gt;Updated: 2022/10/18, 02:03:42&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-392"&gt;CDS-392&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2022/09/30, 15:57:25</t>
+          <t>2022/10/18, 02:03:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CDS-395</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Requirement object at 0x13BAB850&gt;</t>
-        </is>
-      </c>
+          <t>CDS-392</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[&lt;__main__.BehaviorPC object at 0x13BB0870&gt;, &lt;__main__.FunctionalChain object at 0x13BAB8B0&gt;, &lt;__main__.NodePC object at 0x13BBA690&gt;]</t>
+          <t>&lt;__main__.Requirement object at 0x130D0ED0&gt;</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
+          <t>[&lt;__main__.NodePC object at 0x130DAAF0&gt;, &lt;__main__.NodePC object at 0x130A1850&gt;]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
@@ -1043,12 +1066,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CDS-316: Nonfunctional Requirements</t>
+          <t>CDS-317: Performance Requirements</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1058,38 +1081,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-316: Nonfunctional Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-316"&gt;CDS-316&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-317: Performance Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/09/29, 14:15:03&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-317"&gt;CDS-317&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022/07/18, 14:06:15</t>
+          <t>2022/09/29, 14:15:03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CDS-316</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13BAB5F0&gt;</t>
-        </is>
-      </c>
+          <t>CDS-317</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D0D10&gt;</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
@@ -1098,12 +1122,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CDS-317: Performance Requirements</t>
+          <t>CDS-316: Nonfunctional Requirements</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1113,52 +1137,53 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-317: Performance Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/09/29, 14:15:03&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-317"&gt;CDS-317&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-316: Nonfunctional Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-316"&gt;CDS-316&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022/09/29, 14:15:03</t>
+          <t>2022/07/18, 14:06:15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CDS-317</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13BAB930&gt;</t>
-        </is>
-      </c>
+          <t>CDS-316</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D09B0&gt;</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>CDS-316</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5.1-1</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CDS-479: New Requirement</t>
+          <t>CDS-395: Detection</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1168,52 +1193,53 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-479: New Requirement&lt;/p&gt;&lt;p&gt;Updated: 2022/09/29, 14:15:03&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-479"&gt;CDS-479&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-395: Detection&lt;/p&gt;&lt;p&gt;Updated: 2022/10/17, 16:27:03&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-395"&gt;CDS-395&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2022/09/29, 14:15:03</t>
+          <t>2022/10/17, 16:27:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CDS-479</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Requirement object at 0x13BABBD0&gt;</t>
-        </is>
-      </c>
+          <t>CDS-395</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;__main__.Requirement object at 0x130D0C30&gt;</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>CDS-316</t>
+          <t>[&lt;__main__.NodePC object at 0x130E0470&gt;]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5.1-2</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CDS-392: Operational Range</t>
+          <t>CDS-463: Sensor Install</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1223,107 +1249,109 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-392: Operational Range&lt;/p&gt;&lt;p&gt;Updated: 2022/09/30, 15:57:53&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-392"&gt;CDS-392&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-463: Sensor Install&lt;/p&gt;&lt;p&gt;Updated: 2022/09/29, 16:28:21&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-463"&gt;CDS-463&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2022/09/30, 15:57:53</t>
+          <t>2022/09/29, 16:28:21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CDS-392</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Requirement object at 0x13BABAF0&gt;</t>
-        </is>
-      </c>
+          <t>CDS-463</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[&lt;__main__.NodePC object at 0x13BBF190&gt;, &lt;__main__.NodePC object at 0x13BBF770&gt;]</t>
+          <t>&lt;__main__.Requirement object at 0x130D0A90&gt;</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>CDS-316</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5.1-3</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CDS-464: Notification Time</t>
+          <t>CDS-394: Functional Requirement</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>requirement</t>
+          <t>heading</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-464: Notification Time&lt;/p&gt;&lt;p&gt;Updated: 2022/09/30, 15:58:07&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-464"&gt;CDS-464&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-394: Functional Requirement&lt;/p&gt;&lt;p&gt;Updated: 2022/09/08, 13:24:12&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-394"&gt;CDS-394&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2022/09/30, 15:58:07</t>
+          <t>2022/09/08, 13:24:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CDS-464</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Requirement object at 0x13BABCB0&gt;</t>
-        </is>
-      </c>
+          <t>CDS-394</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[&lt;__main__.FunctionalChain object at 0x13BBFED0&gt;]</t>
+          <t>&lt;__main__.Folder object at 0x130D08D0&gt;</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>CDS-316</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CDS-318: Safety Requirements</t>
+          <t>CDS-314: Product Backlog</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1333,7 +1361,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-318: Safety Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-318"&gt;CDS-318&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-314: Product Backlog&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-314"&gt;CDS-314&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1343,42 +1371,43 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CDS-318</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13BABA10&gt;</t>
-        </is>
-      </c>
+          <t>CDS-314</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D07D0&gt;</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>CDS-316</t>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CDS-319: Security Requirements</t>
+          <t>CDS-313: Overall Description</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1388,107 +1417,109 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-319: Security Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/09/29, 13:22:42&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-319"&gt;CDS-319&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-313: Overall Description&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-313"&gt;CDS-313&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2022/09/29, 13:22:42</t>
+          <t>2022/07/18, 14:06:15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CDS-319</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13BABD90&gt;</t>
-        </is>
-      </c>
+          <t>CDS-313</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D06F0&gt;</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>CDS-316</t>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5.3-1</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CDS-474: Athlete onboarding</t>
+          <t>CDS-311: References</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>requirement</t>
+          <t>heading</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-474: Athlete onboarding&lt;/p&gt;&lt;p&gt;Updated: 2022/09/30, 13:24:51&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-474"&gt;CDS-474&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-311: References&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-311"&gt;CDS-311&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2022/09/30, 13:24:51</t>
+          <t>2022/07/18, 14:06:15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CDS-474</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Requirement object at 0x13BABF50&gt;</t>
-        </is>
-      </c>
+          <t>CDS-311</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D0610&gt;</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>CDS-316</t>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CDS-320: Software Quality Attributes</t>
+          <t>CDS-310: Scope</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1498,7 +1529,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-320: Software Quality Attributes&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-320"&gt;CDS-320&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-310: Scope&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-310"&gt;CDS-310&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1508,42 +1539,43 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CDS-320</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13BABE70&gt;</t>
-        </is>
-      </c>
+          <t>CDS-310</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D0390&gt;</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>CDS-316</t>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CDS-321: Other Requirements</t>
+          <t>CDS-390: Purpose</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1553,7 +1585,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;p&gt;CDS-321: Other Requirements&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-321"&gt;CDS-321&lt;/a&gt;&lt;/p&gt;</t>
+          <t>&lt;p&gt;CDS-390: Purpose&lt;/p&gt;&lt;p&gt;Updated: 2022/07/18, 14:06:15&lt;/p&gt;&lt;p&gt;&lt;a href="https://polarion.diswx.com/polarion/#/project/ConcussionDetectionSystem/workitem?id=CDS-390"&gt;CDS-390&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1563,37 +1595,38 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CDS-321</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13BB0050&gt;</t>
-        </is>
-      </c>
+          <t>CDS-390</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130A1E30&gt;</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>CDS-316</t>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1621,25 +1654,26 @@
           <t>CDS-322</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13BB0130&gt;</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D0F70&gt;</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
@@ -1648,7 +1682,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Not Parsed</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1676,25 +1710,26 @@
           <t>CDS-323</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Folder object at 0x13BB0210&gt;</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
+          <t>&lt;__main__.Folder object at 0x130D0BF0&gt;</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>update_outline</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
